--- a/biology/Microbiologie/Chlamydiales/Chlamydiales.xlsx
+++ b/biology/Microbiologie/Chlamydiales/Chlamydiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chlamydiales sont un ordre de bactéries à Gram négatif à développement intracellulaire obligatoire de la classe des Chlamydiia. Son nom provient de Chlamydia qui est le genre type de cet ordre.
 </t>
@@ -513,14 +525,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Familles validement publiées
-Selon la LPSN  (30 novembre 2022)[2] :
+          <t>Familles validement publiées</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (30 novembre 2022) :
 Chlamydiaceae Rake 1957
 Parachlamydiaceae Everett et al. 1999
 Simkaniaceae Everett et al. 1999
-Waddliaceae Rurangirwa et al. 1999
-Familles en attente de publication valide
-Selon la LPSN  (30 novembre 2022)[2] les familles suivantes sont en attente de publication valide (Ca. signifie Candidatus) :
+Waddliaceae Rurangirwa et al. 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chlamydiales</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlamydiales</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste de familles</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Familles en attente de publication valide</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (30 novembre 2022) les familles suivantes sont en attente de publication valide (Ca. signifie Candidatus) :
 « Ca. Actinochlamydiaceae » Steigen et al. 2013
 « Ca. Criblamydiaceae » Thomas et al. 2006
 « Ca. Parilichlamydiaceae » Stride et al. 2013
